--- a/Checklists/Mobile_App_Security_Checklist-English_1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-English_1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/PentestTools/OWASP/owasp-mstg/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFC71E-9B03-054E-8685-8A50851AD211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97A55F9-A1B9-EB47-8051-CBEC824FD855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="705" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="401">
   <si>
     <r>
       <rPr>
@@ -1432,6 +1432,9 @@
     <t xml:space="preserve">The two rows above are used to construct the base for all hyperlinks in the Android and iOS checklists. 
 Adjust to your specific use case to update all hyperlinks to a specific version of the MSTG </t>
     <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>1.1.3-excel</t>
   </si>
 </sst>
 </file>
@@ -2357,35 +2360,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2409,42 +2413,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -3751,7 +3726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3766,46 +3741,46 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8" customHeight="1"/>
     <row r="2" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
     </row>
     <row r="8" spans="2:4" hidden="1">
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
@@ -3815,41 +3790,41 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="127"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="64">
         <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="124"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="4" t="str">
         <f>HYPERLINK(CONCATENATE( "https://github.com/OWASP/owasp-masvs/blob/", MASVS_VERSION, "/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.2/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="5">
-        <v>1.2</v>
+      <c r="C13" s="124"/>
+      <c r="D13" s="5" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="17">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="124"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="6" t="str">
         <f>HYPERLINK(CONCATENATE( "https://github.com/OWASP/owasp-mstg/blob/", MSTG_VERSION, "/Document/"))</f>
-        <v>https://github.com/OWASP/owasp-mstg/blob/1.2/Document/</v>
+        <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3-excel/Document/</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="32" customHeight="1">
@@ -3860,62 +3835,62 @@
       <c r="D15" s="125"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="121"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="124"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="121"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="121"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="121"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="121"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1">
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="121"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="7" t="s">
@@ -3932,37 +3907,37 @@
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="121"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="121"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="121"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="2:4" ht="66" customHeight="1">
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="122"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="7" t="s">
@@ -3979,37 +3954,37 @@
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="121"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="121"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="121"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="2:4" ht="63" customHeight="1">
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="122"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="123"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="7" t="s">
@@ -4019,117 +3994,87 @@
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="120"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="119" t="s">
+      <c r="B40" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="119"/>
+      <c r="C40" s="129"/>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="119"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="119" t="s">
+      <c r="B42" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="119"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="119" t="s">
+      <c r="B43" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="119"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="13"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="119" t="s">
+      <c r="B44" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="119"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="120"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="119" t="s">
+      <c r="B46" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="119"/>
+      <c r="C46" s="129"/>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="119" t="s">
+      <c r="B47" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="119"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="119" t="s">
+      <c r="B48" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="119"/>
+      <c r="C48" s="129"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="119" t="s">
+      <c r="B49" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="119"/>
+      <c r="C49" s="129"/>
       <c r="D49" s="13"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="119" t="s">
+      <c r="B50" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="119"/>
+      <c r="C50" s="129"/>
       <c r="D50" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B44:C44"/>
@@ -4137,6 +4082,36 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4180,11 +4155,11 @@
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1">
       <c r="B5" s="18"/>
@@ -4199,16 +4174,16 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="V6" s="131" t="s">
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="V6" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
     </row>
     <row r="7" spans="2:24">
       <c r="B7" s="20"/>
@@ -4223,18 +4198,18 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="132">
+      <c r="G8" s="133">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="V8" s="132">
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="V8" s="133">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="132"/>
-      <c r="X8" s="132"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="133"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1">
       <c r="B9" s="19"/>
@@ -4242,12 +4217,12 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1">
       <c r="B10" s="20"/>
@@ -4255,12 +4230,12 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1">
       <c r="B11" s="20"/>
@@ -4268,19 +4243,19 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1">
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="21"/>
@@ -4304,11 +4279,11 @@
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1">
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="21"/>
@@ -4361,18 +4336,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1"/>
     <row r="41" spans="3:11">
-      <c r="D41" s="129" t="s">
+      <c r="D41" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129" t="s">
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
     </row>
     <row r="42" spans="3:11">
       <c r="D42" s="25" t="s">
@@ -4719,7 +4694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4733,7 +4708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4747,7 +4722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
@@ -4768,18 +4745,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="67"/>
@@ -4812,10 +4789,10 @@
       <c r="G3" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="135"/>
+      <c r="I3" s="136"/>
       <c r="J3" s="34"/>
       <c r="K3" s="35" t="s">
         <v>56</v>
@@ -7506,11 +7483,11 @@
       <c r="G3" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
       <c r="K3" s="35" t="s">
         <v>56</v>
       </c>
@@ -9572,22 +9549,22 @@
   </mergeCells>
   <phoneticPr fontId="27"/>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H28 H33:H1048576">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9756,7 +9733,7 @@
       <c r="F8" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="137" t="str">
+      <c r="G8" s="119" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-reverse-engineering-tools-detection-mstg-resilience-4"),"Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)")</f>
         <v>Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)</v>
       </c>
@@ -9778,7 +9755,7 @@
       <c r="F9" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="137" t="str">
+      <c r="G9" s="119" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection-mstg-resilience-5"),"Testing Emulator Detection (MSTG-RESILIENCE-5)")</f>
         <v>Testing Emulator Detection (MSTG-RESILIENCE-5)</v>
       </c>
@@ -9800,7 +9777,7 @@
       <c r="F10" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="137"/>
+      <c r="G10" s="119"/>
       <c r="H10" s="112"/>
     </row>
     <row r="11" spans="2:8" ht="32">
@@ -9861,7 +9838,7 @@
       <c r="F13" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="137" t="str">
+      <c r="G13" s="119" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
         <v>Testing Obfuscation (MSTG-RESILIENCE-9)</v>
       </c>
@@ -10127,12 +10104,12 @@
   </sheetData>
   <phoneticPr fontId="27"/>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10176,10 +10153,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="137"/>
       <c r="C1" s="50"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>

--- a/Checklists/Mobile_App_Security_Checklist-English_1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-English_1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/PentestTools/OWASP/owasp-mstg/Checklists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathis_hesse\Documents\Git\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97A55F9-A1B9-EB47-8051-CBEC824FD855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF5DFC3-2694-4B06-8AC3-0FA8A9BD2AE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="705" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="401">
   <si>
     <r>
       <rPr>
@@ -2415,9 +2413,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2577,7 +2575,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -2678,7 +2676,7 @@
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2816,7 +2814,7 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="10768888"/>
@@ -2868,7 +2866,7 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57926455"/>
@@ -2914,7 +2912,7 @@
               <a:ea typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2941,7 +2939,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -3042,7 +3040,7 @@
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3180,7 +3178,7 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96135864"/>
@@ -3232,7 +3230,7 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="44602735"/>
@@ -3278,7 +3276,7 @@
               <a:ea typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3428,7 +3426,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3726,20 +3724,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.296875" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" customWidth="1"/>
     <col min="4" max="4" width="92.5" customWidth="1"/>
-    <col min="5" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="5" max="1025" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="8" customHeight="1"/>
+    <row r="1" spans="2:4" ht="7.95" customHeight="1"/>
     <row r="2" spans="2:4" ht="15.75" customHeight="1">
       <c r="B2" s="120" t="s">
         <v>0</v>
@@ -3777,7 +3775,7 @@
       <c r="C8" s="120"/>
       <c r="D8" s="120"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" ht="16.2">
       <c r="B9" s="121"/>
       <c r="C9" s="121"/>
       <c r="D9" s="121"/>
@@ -3817,7 +3815,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="17">
+    <row r="14" spans="2:4">
       <c r="B14" s="123" t="s">
         <v>6</v>
       </c>
@@ -3827,7 +3825,7 @@
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3-excel/Document/</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="32" customHeight="1">
+    <row r="15" spans="2:4" ht="31.95" customHeight="1">
       <c r="B15" s="125" t="s">
         <v>399</v>
       </c>
@@ -3887,7 +3885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" ht="16.2">
       <c r="B23" s="121"/>
       <c r="C23" s="121"/>
       <c r="D23" s="121"/>
@@ -3934,7 +3932,7 @@
       <c r="C29" s="127"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" ht="16.2">
       <c r="B30" s="121"/>
       <c r="C30" s="121"/>
       <c r="D30" s="121"/>
@@ -3981,7 +3979,7 @@
       <c r="C36" s="127"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" ht="16.2">
       <c r="B37" s="121"/>
       <c r="C37" s="121"/>
       <c r="D37" s="121"/>
@@ -3993,7 +3991,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" ht="16.2">
       <c r="B39" s="128"/>
       <c r="C39" s="128"/>
       <c r="D39" s="128"/>
@@ -4033,7 +4031,7 @@
       <c r="C44" s="129"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" ht="16.2">
       <c r="B45" s="128"/>
       <c r="C45" s="128"/>
       <c r="D45" s="128"/>
@@ -4126,19 +4124,19 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="14" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="54.796875" style="14" customWidth="1"/>
     <col min="4" max="4" width="6" style="14" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="14" customWidth="1"/>
-    <col min="8" max="1025" width="8.83203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="14" customWidth="1"/>
+    <col min="8" max="1025" width="8.796875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:24" ht="16.2">
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="s">
         <v>31</v>
@@ -4147,28 +4145,28 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:24" ht="16.2">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="2:24">
+    <row r="4" spans="2:24" ht="16.2">
       <c r="B4" s="131"/>
       <c r="C4" s="131"/>
       <c r="D4" s="131"/>
       <c r="E4" s="131"/>
       <c r="F4" s="131"/>
     </row>
-    <row r="5" spans="2:24" ht="16" customHeight="1">
+    <row r="5" spans="2:24" ht="16.05" customHeight="1">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="2:24" ht="19" customHeight="1">
+    <row r="6" spans="2:24" ht="19.05" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -4185,14 +4183,14 @@
       <c r="W6" s="132"/>
       <c r="X6" s="132"/>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" ht="16.2">
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="2:24" ht="16" customHeight="1">
+    <row r="8" spans="2:24" ht="16.05" customHeight="1">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -4211,7 +4209,7 @@
       <c r="W8" s="133"/>
       <c r="X8" s="133"/>
     </row>
-    <row r="9" spans="2:24" ht="91" customHeight="1">
+    <row r="9" spans="2:24" ht="91.05" customHeight="1">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -4250,7 +4248,7 @@
       <c r="W11" s="133"/>
       <c r="X11" s="133"/>
     </row>
-    <row r="12" spans="2:24" ht="16" customHeight="1">
+    <row r="12" spans="2:24" ht="16.05" customHeight="1">
       <c r="B12" s="134"/>
       <c r="C12" s="134"/>
       <c r="D12" s="134"/>
@@ -4271,14 +4269,14 @@
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" ht="16.2">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="2:24" ht="16" customHeight="1">
+    <row r="16" spans="2:24" ht="16.05" customHeight="1">
       <c r="B16" s="134"/>
       <c r="C16" s="134"/>
       <c r="D16" s="134"/>
@@ -4722,29 +4720,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="65" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="65" customWidth="1"/>
     <col min="2" max="2" width="8" style="98" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="98" customWidth="1"/>
-    <col min="4" max="4" width="97.33203125" style="30" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" style="98" customWidth="1"/>
+    <col min="4" max="4" width="97.296875" style="30" customWidth="1"/>
+    <col min="5" max="6" width="6.69921875" style="65" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="65" customWidth="1"/>
     <col min="8" max="8" width="101.5" style="66" customWidth="1"/>
     <col min="9" max="9" width="83.5" style="66" customWidth="1"/>
-    <col min="10" max="10" width="73.33203125" style="66" customWidth="1"/>
-    <col min="11" max="11" width="30.83203125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="73.296875" style="66" customWidth="1"/>
+    <col min="11" max="11" width="30.796875" style="30" customWidth="1"/>
     <col min="12" max="12" width="11" style="65" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="65" customWidth="1"/>
+    <col min="13" max="14" width="10.796875" style="65" customWidth="1"/>
     <col min="15" max="1025" width="11" style="65" customWidth="1"/>
-    <col min="1026" max="16384" width="8.6640625" style="66"/>
+    <col min="1026" max="16384" width="8.69921875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="135" t="s">
         <v>48</v>
       </c>
@@ -4842,7 +4840,7 @@
       <c r="J5" s="80"/>
       <c r="K5" s="112"/>
     </row>
-    <row r="6" spans="2:11" ht="17">
+    <row r="6" spans="2:11">
       <c r="B6" s="75" t="s">
         <v>63</v>
       </c>
@@ -4870,7 +4868,7 @@
       <c r="J6" s="85"/>
       <c r="K6" s="112"/>
     </row>
-    <row r="7" spans="2:11" ht="32">
+    <row r="7" spans="2:11" ht="28.8">
       <c r="B7" s="75" t="s">
         <v>66</v>
       </c>
@@ -4945,7 +4943,7 @@
       <c r="J9" s="80"/>
       <c r="K9" s="112"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11" ht="28.8">
       <c r="B10" s="75" t="s">
         <v>76</v>
       </c>
@@ -4970,7 +4968,7 @@
       <c r="J10" s="80"/>
       <c r="K10" s="112"/>
     </row>
-    <row r="11" spans="2:11" ht="17">
+    <row r="11" spans="2:11">
       <c r="B11" s="75" t="s">
         <v>79</v>
       </c>
@@ -5001,7 +4999,7 @@
       </c>
       <c r="K11" s="112"/>
     </row>
-    <row r="12" spans="2:11" ht="32">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="75" t="s">
         <v>82</v>
       </c>
@@ -5136,7 +5134,7 @@
       <c r="J17" s="83"/>
       <c r="K17" s="40"/>
     </row>
-    <row r="18" spans="2:11" ht="17">
+    <row r="18" spans="2:11">
       <c r="B18" s="75" t="s">
         <v>93</v>
       </c>
@@ -5164,7 +5162,7 @@
       <c r="J18" s="80"/>
       <c r="K18" s="112"/>
     </row>
-    <row r="19" spans="2:11" ht="17">
+    <row r="19" spans="2:11">
       <c r="B19" s="75" t="s">
         <v>95</v>
       </c>
@@ -5174,8 +5172,12 @@
       <c r="D19" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
+      <c r="E19" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>62</v>
+      </c>
       <c r="G19" s="111"/>
       <c r="H19" s="85" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
@@ -5210,7 +5212,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="112"/>
     </row>
-    <row r="21" spans="2:11" ht="17">
+    <row r="21" spans="2:11">
       <c r="B21" s="75" t="s">
         <v>101</v>
       </c>
@@ -5235,7 +5237,7 @@
       <c r="J21" s="80"/>
       <c r="K21" s="112"/>
     </row>
-    <row r="22" spans="2:11" ht="17">
+    <row r="22" spans="2:11">
       <c r="B22" s="75" t="s">
         <v>104</v>
       </c>
@@ -5260,7 +5262,7 @@
       <c r="J22" s="80"/>
       <c r="K22" s="112"/>
     </row>
-    <row r="23" spans="2:11" ht="17">
+    <row r="23" spans="2:11">
       <c r="B23" s="75" t="s">
         <v>107</v>
       </c>
@@ -5385,7 +5387,7 @@
       <c r="J27" s="80"/>
       <c r="K27" s="112"/>
     </row>
-    <row r="28" spans="2:11" ht="17">
+    <row r="28" spans="2:11">
       <c r="B28" s="75" t="s">
         <v>122</v>
       </c>
@@ -5413,7 +5415,7 @@
       <c r="J28" s="80"/>
       <c r="K28" s="112"/>
     </row>
-    <row r="29" spans="2:11" ht="32">
+    <row r="29" spans="2:11" ht="28.8">
       <c r="B29" s="75" t="s">
         <v>125</v>
       </c>
@@ -5438,7 +5440,7 @@
       <c r="J29" s="80"/>
       <c r="K29" s="112"/>
     </row>
-    <row r="30" spans="2:11" ht="32">
+    <row r="30" spans="2:11" ht="28.8">
       <c r="B30" s="75" t="s">
         <v>367</v>
       </c>
@@ -5460,7 +5462,7 @@
       <c r="J30" s="80"/>
       <c r="K30" s="112"/>
     </row>
-    <row r="31" spans="2:11" ht="32">
+    <row r="31" spans="2:11" ht="28.8">
       <c r="B31" s="75" t="s">
         <v>368</v>
       </c>
@@ -5548,7 +5550,7 @@
       <c r="J34" s="80"/>
       <c r="K34" s="112"/>
     </row>
-    <row r="35" spans="2:13" ht="34">
+    <row r="35" spans="2:13" ht="31.2">
       <c r="B35" s="75" t="s">
         <v>133</v>
       </c>
@@ -5576,7 +5578,7 @@
       <c r="J35" s="80"/>
       <c r="K35" s="112"/>
     </row>
-    <row r="36" spans="2:13" ht="34">
+    <row r="36" spans="2:13" ht="31.2">
       <c r="B36" s="75" t="s">
         <v>136</v>
       </c>
@@ -5604,7 +5606,7 @@
       <c r="J36" s="80"/>
       <c r="K36" s="112"/>
     </row>
-    <row r="37" spans="2:13" ht="34">
+    <row r="37" spans="2:13" ht="31.2">
       <c r="B37" s="75" t="s">
         <v>139</v>
       </c>
@@ -5698,7 +5700,7 @@
       <c r="J40" s="83"/>
       <c r="K40" s="40"/>
     </row>
-    <row r="41" spans="2:13" ht="32">
+    <row r="41" spans="2:13" ht="28.8">
       <c r="B41" s="75" t="s">
         <v>149</v>
       </c>
@@ -5729,7 +5731,7 @@
       </c>
       <c r="K41" s="112"/>
     </row>
-    <row r="42" spans="2:13" ht="32">
+    <row r="42" spans="2:13" ht="28.8">
       <c r="B42" s="75" t="s">
         <v>152</v>
       </c>
@@ -5754,7 +5756,7 @@
       <c r="J42" s="80"/>
       <c r="K42" s="112"/>
     </row>
-    <row r="43" spans="2:13" ht="17">
+    <row r="43" spans="2:13">
       <c r="B43" s="75" t="s">
         <v>155</v>
       </c>
@@ -5793,8 +5795,12 @@
       <c r="D44" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="78"/>
+      <c r="E44" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>62</v>
+      </c>
       <c r="G44" s="111"/>
       <c r="H44" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
@@ -5830,7 +5836,7 @@
       <c r="J45" s="80"/>
       <c r="K45" s="112"/>
     </row>
-    <row r="46" spans="2:13" ht="32">
+    <row r="46" spans="2:13">
       <c r="B46" s="75" t="s">
         <v>164</v>
       </c>
@@ -5883,7 +5889,7 @@
       <c r="J47" s="87"/>
       <c r="K47" s="114"/>
     </row>
-    <row r="48" spans="2:13" ht="32">
+    <row r="48" spans="2:13" ht="28.8">
       <c r="B48" s="75" t="s">
         <v>170</v>
       </c>
@@ -5958,7 +5964,7 @@
       <c r="J50" s="80"/>
       <c r="K50" s="112"/>
     </row>
-    <row r="51" spans="2:11" ht="32">
+    <row r="51" spans="2:11" ht="28.8">
       <c r="B51" s="75" t="s">
         <v>179</v>
       </c>
@@ -6046,7 +6052,7 @@
       <c r="J54" s="80"/>
       <c r="K54" s="112"/>
     </row>
-    <row r="55" spans="2:11" ht="32">
+    <row r="55" spans="2:11" ht="28.8">
       <c r="B55" s="75" t="s">
         <v>186</v>
       </c>
@@ -6071,7 +6077,7 @@
       <c r="J55" s="80"/>
       <c r="K55" s="112"/>
     </row>
-    <row r="56" spans="2:11" ht="32">
+    <row r="56" spans="2:11" ht="28.8">
       <c r="B56" s="75" t="s">
         <v>189</v>
       </c>
@@ -6096,7 +6102,7 @@
       <c r="J56" s="85"/>
       <c r="K56" s="115"/>
     </row>
-    <row r="57" spans="2:11" ht="32">
+    <row r="57" spans="2:11" ht="28.8">
       <c r="B57" s="75" t="s">
         <v>192</v>
       </c>
@@ -6124,7 +6130,7 @@
       <c r="J57" s="80"/>
       <c r="K57" s="112"/>
     </row>
-    <row r="58" spans="2:11" ht="32">
+    <row r="58" spans="2:11" ht="28.8">
       <c r="B58" s="75" t="s">
         <v>195</v>
       </c>
@@ -6215,7 +6221,7 @@
       <c r="J61" s="80"/>
       <c r="K61" s="112"/>
     </row>
-    <row r="62" spans="2:11" ht="32">
+    <row r="62" spans="2:11" ht="28.8">
       <c r="B62" s="75" t="s">
         <v>206</v>
       </c>
@@ -6318,7 +6324,7 @@
       <c r="J65" s="80"/>
       <c r="K65" s="112"/>
     </row>
-    <row r="66" spans="2:12" ht="32">
+    <row r="66" spans="2:12" ht="28.8">
       <c r="B66" s="75" t="s">
         <v>218</v>
       </c>
@@ -6343,7 +6349,7 @@
       <c r="J66" s="80"/>
       <c r="K66" s="112"/>
     </row>
-    <row r="67" spans="2:12" ht="32">
+    <row r="67" spans="2:12" ht="28.8">
       <c r="B67" s="75" t="s">
         <v>221</v>
       </c>
@@ -6550,7 +6556,7 @@
       <c r="J75" s="80"/>
       <c r="K75" s="112"/>
     </row>
-    <row r="76" spans="2:12" ht="32">
+    <row r="76" spans="2:12" ht="28.8">
       <c r="B76" s="75" t="s">
         <v>238</v>
       </c>
@@ -6575,7 +6581,7 @@
       <c r="J76" s="80"/>
       <c r="K76" s="112"/>
     </row>
-    <row r="77" spans="2:12" ht="32">
+    <row r="77" spans="2:12" ht="28.8">
       <c r="B77" s="75" t="s">
         <v>240</v>
       </c>
@@ -6676,7 +6682,7 @@
       <c r="K80" s="116"/>
       <c r="L80" s="89"/>
     </row>
-    <row r="81" spans="2:11" ht="32">
+    <row r="81" spans="2:11" ht="28.8">
       <c r="B81" s="75" t="s">
         <v>252</v>
       </c>
@@ -6902,21 +6908,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="65" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="98" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="98" customWidth="1"/>
-    <col min="4" max="4" width="97.33203125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="65" customWidth="1"/>
+    <col min="2" max="2" width="7.296875" style="98" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" style="98" customWidth="1"/>
+    <col min="4" max="4" width="97.296875" style="30" customWidth="1"/>
     <col min="5" max="5" width="3" style="65" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="69.1640625" style="66" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" style="65" customWidth="1"/>
+    <col min="7" max="7" width="69.19921875" style="66" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="30" customWidth="1"/>
     <col min="9" max="1025" width="11" style="65" customWidth="1"/>
-    <col min="1026" max="16384" width="8.6640625" style="66"/>
+    <col min="1026" max="16384" width="8.69921875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="101" t="s">
         <v>263</v>
       </c>
@@ -6936,7 +6942,7 @@
       <c r="G2" s="95"/>
       <c r="H2" s="44"/>
     </row>
-    <row r="3" spans="2:8" ht="32">
+    <row r="3" spans="2:8">
       <c r="B3" s="70" t="s">
         <v>49</v>
       </c>
@@ -6970,7 +6976,7 @@
       <c r="G4" s="83"/>
       <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="2:8" ht="32">
+    <row r="5" spans="2:8">
       <c r="B5" s="75" t="s">
         <v>267</v>
       </c>
@@ -6992,7 +6998,7 @@
       </c>
       <c r="H5" s="112"/>
     </row>
-    <row r="6" spans="2:8" ht="32">
+    <row r="6" spans="2:8" ht="28.8">
       <c r="B6" s="75" t="s">
         <v>270</v>
       </c>
@@ -7102,7 +7108,7 @@
       </c>
       <c r="H10" s="112"/>
     </row>
-    <row r="11" spans="2:8" ht="32">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="75" t="s">
         <v>285</v>
       </c>
@@ -7123,7 +7129,7 @@
       </c>
       <c r="H11" s="112"/>
     </row>
-    <row r="12" spans="2:8" ht="17">
+    <row r="12" spans="2:8">
       <c r="B12" s="75" t="s">
         <v>289</v>
       </c>
@@ -7177,7 +7183,7 @@
       <c r="G14" s="83"/>
       <c r="H14" s="40"/>
     </row>
-    <row r="15" spans="2:8" ht="32">
+    <row r="15" spans="2:8" ht="28.8">
       <c r="B15" s="75" t="s">
         <v>297</v>
       </c>
@@ -7210,7 +7216,7 @@
       <c r="G16" s="83"/>
       <c r="H16" s="40"/>
     </row>
-    <row r="17" spans="2:8" ht="32">
+    <row r="17" spans="2:8" ht="28.8">
       <c r="B17" s="75" t="s">
         <v>301</v>
       </c>
@@ -7232,7 +7238,7 @@
       </c>
       <c r="H17" s="112"/>
     </row>
-    <row r="18" spans="2:8" ht="64">
+    <row r="18" spans="2:8" ht="57.6">
       <c r="B18" s="75" t="s">
         <v>304</v>
       </c>
@@ -7264,7 +7270,7 @@
       <c r="G19" s="83"/>
       <c r="H19" s="40"/>
     </row>
-    <row r="20" spans="2:8" ht="32">
+    <row r="20" spans="2:8" ht="28.8">
       <c r="B20" s="75" t="s">
         <v>392</v>
       </c>
@@ -7419,26 +7425,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="66" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="66" customWidth="1"/>
     <col min="2" max="2" width="8" style="110" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="110" customWidth="1"/>
-    <col min="4" max="4" width="97.33203125" style="48" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" style="110" customWidth="1"/>
+    <col min="4" max="4" width="97.296875" style="48" customWidth="1"/>
+    <col min="5" max="6" width="6.69921875" style="66" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="66" customWidth="1"/>
     <col min="8" max="8" width="91.5" style="66" customWidth="1"/>
-    <col min="9" max="10" width="75.33203125" style="66" customWidth="1"/>
-    <col min="11" max="11" width="30.83203125" style="48" customWidth="1"/>
+    <col min="9" max="10" width="75.296875" style="66" customWidth="1"/>
+    <col min="11" max="11" width="30.796875" style="48" customWidth="1"/>
     <col min="12" max="12" width="11" style="66" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="66" customWidth="1"/>
+    <col min="13" max="14" width="10.796875" style="66" customWidth="1"/>
     <col min="15" max="1025" width="11" style="66" customWidth="1"/>
-    <col min="1026" max="16384" width="8.6640625" style="66"/>
+    <col min="1026" max="16384" width="8.69921875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="105" t="s">
         <v>307</v>
       </c>
@@ -7561,7 +7569,7 @@
       <c r="J6" s="86"/>
       <c r="K6" s="112"/>
     </row>
-    <row r="7" spans="2:11" ht="32">
+    <row r="7" spans="2:11" ht="28.8">
       <c r="B7" s="75" t="s">
         <v>66</v>
       </c>
@@ -7636,7 +7644,7 @@
       <c r="J9" s="80"/>
       <c r="K9" s="112"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11" ht="28.8">
       <c r="B10" s="75" t="s">
         <v>76</v>
       </c>
@@ -7661,7 +7669,7 @@
       <c r="J10" s="80"/>
       <c r="K10" s="112"/>
     </row>
-    <row r="11" spans="2:11" ht="17">
+    <row r="11" spans="2:11">
       <c r="B11" s="75" t="s">
         <v>79</v>
       </c>
@@ -7689,7 +7697,7 @@
       <c r="J11" s="85"/>
       <c r="K11" s="112"/>
     </row>
-    <row r="12" spans="2:11" ht="32">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="75" t="s">
         <v>82</v>
       </c>
@@ -7859,8 +7867,12 @@
       <c r="D19" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
+      <c r="E19" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>62</v>
+      </c>
       <c r="G19" s="111"/>
       <c r="H19" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
@@ -7945,7 +7957,7 @@
       <c r="J22" s="80"/>
       <c r="K22" s="112"/>
     </row>
-    <row r="23" spans="2:12" ht="17">
+    <row r="23" spans="2:12">
       <c r="B23" s="75" t="s">
         <v>107</v>
       </c>
@@ -8096,7 +8108,7 @@
       <c r="K28" s="112"/>
       <c r="L28" s="107"/>
     </row>
-    <row r="29" spans="2:12" ht="32">
+    <row r="29" spans="2:12" ht="28.8">
       <c r="B29" s="75" t="s">
         <v>125</v>
       </c>
@@ -8122,7 +8134,7 @@
       <c r="K29" s="112"/>
       <c r="L29" s="65"/>
     </row>
-    <row r="30" spans="2:12" ht="32">
+    <row r="30" spans="2:12" ht="28.8">
       <c r="B30" s="75" t="s">
         <v>367</v>
       </c>
@@ -8145,7 +8157,7 @@
       <c r="K30" s="112"/>
       <c r="L30" s="65"/>
     </row>
-    <row r="31" spans="2:12" ht="32">
+    <row r="31" spans="2:12" ht="28.8">
       <c r="B31" s="75" t="s">
         <v>368</v>
       </c>
@@ -8232,7 +8244,7 @@
       <c r="J34" s="80"/>
       <c r="K34" s="112"/>
     </row>
-    <row r="35" spans="2:13" ht="17">
+    <row r="35" spans="2:13">
       <c r="B35" s="75" t="s">
         <v>133</v>
       </c>
@@ -8257,7 +8269,7 @@
       <c r="J35" s="80"/>
       <c r="K35" s="112"/>
     </row>
-    <row r="36" spans="2:13" ht="32">
+    <row r="36" spans="2:13" ht="28.8">
       <c r="B36" s="75" t="s">
         <v>136</v>
       </c>
@@ -8373,7 +8385,7 @@
       <c r="J40" s="83"/>
       <c r="K40" s="40"/>
     </row>
-    <row r="41" spans="2:13" ht="32">
+    <row r="41" spans="2:13" ht="28.8">
       <c r="B41" s="75" t="s">
         <v>149</v>
       </c>
@@ -8401,7 +8413,7 @@
       <c r="J41" s="86"/>
       <c r="K41" s="112"/>
     </row>
-    <row r="42" spans="2:13" ht="32">
+    <row r="42" spans="2:13" ht="28.8">
       <c r="B42" s="75" t="s">
         <v>152</v>
       </c>
@@ -8464,8 +8476,12 @@
       <c r="D44" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="78"/>
+      <c r="E44" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>62</v>
+      </c>
       <c r="G44" s="111"/>
       <c r="H44" s="86" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
@@ -8502,7 +8518,7 @@
       <c r="K45" s="112"/>
       <c r="M45" s="87"/>
     </row>
-    <row r="46" spans="2:13" ht="32">
+    <row r="46" spans="2:13">
       <c r="B46" s="75" t="s">
         <v>164</v>
       </c>
@@ -8555,7 +8571,7 @@
       <c r="J47" s="87"/>
       <c r="K47" s="114"/>
     </row>
-    <row r="48" spans="2:13" ht="32">
+    <row r="48" spans="2:13" ht="28.8">
       <c r="B48" s="75" t="s">
         <v>170</v>
       </c>
@@ -8580,7 +8596,7 @@
       <c r="J48" s="86"/>
       <c r="K48" s="112"/>
     </row>
-    <row r="49" spans="2:11" ht="17">
+    <row r="49" spans="2:11">
       <c r="B49" s="75" t="s">
         <v>173</v>
       </c>
@@ -8605,7 +8621,7 @@
       <c r="J49" s="80"/>
       <c r="K49" s="112"/>
     </row>
-    <row r="50" spans="2:11" ht="17">
+    <row r="50" spans="2:11">
       <c r="B50" s="75" t="s">
         <v>176</v>
       </c>
@@ -8630,7 +8646,7 @@
       <c r="J50" s="80"/>
       <c r="K50" s="112"/>
     </row>
-    <row r="51" spans="2:11" ht="32">
+    <row r="51" spans="2:11" ht="28.8">
       <c r="B51" s="75" t="s">
         <v>179</v>
       </c>
@@ -8693,7 +8709,7 @@
       <c r="J53" s="83"/>
       <c r="K53" s="40"/>
     </row>
-    <row r="54" spans="2:11" ht="17">
+    <row r="54" spans="2:11">
       <c r="B54" s="75" t="s">
         <v>183</v>
       </c>
@@ -8718,7 +8734,7 @@
       <c r="J54" s="85"/>
       <c r="K54" s="115"/>
     </row>
-    <row r="55" spans="2:11" ht="32">
+    <row r="55" spans="2:11" ht="28.8">
       <c r="B55" s="75" t="s">
         <v>186</v>
       </c>
@@ -8746,7 +8762,7 @@
       <c r="J55" s="85"/>
       <c r="K55" s="115"/>
     </row>
-    <row r="56" spans="2:11" ht="32">
+    <row r="56" spans="2:11" ht="28.8">
       <c r="B56" s="75" t="s">
         <v>189</v>
       </c>
@@ -8771,7 +8787,7 @@
       <c r="J56" s="80"/>
       <c r="K56" s="115"/>
     </row>
-    <row r="57" spans="2:11" ht="32">
+    <row r="57" spans="2:11" ht="28.8">
       <c r="B57" s="75" t="s">
         <v>192</v>
       </c>
@@ -8796,7 +8812,7 @@
       <c r="J57" s="80"/>
       <c r="K57" s="112"/>
     </row>
-    <row r="58" spans="2:11" ht="32">
+    <row r="58" spans="2:11" ht="28.8">
       <c r="B58" s="75" t="s">
         <v>195</v>
       </c>
@@ -8887,7 +8903,7 @@
       <c r="J61" s="80"/>
       <c r="K61" s="112"/>
     </row>
-    <row r="62" spans="2:11" ht="32">
+    <row r="62" spans="2:11" ht="28.8">
       <c r="B62" s="75" t="s">
         <v>206</v>
       </c>
@@ -8987,7 +9003,7 @@
       <c r="J65" s="80"/>
       <c r="K65" s="112"/>
     </row>
-    <row r="66" spans="2:11" ht="32">
+    <row r="66" spans="2:11" ht="28.8">
       <c r="B66" s="75" t="s">
         <v>218</v>
       </c>
@@ -9012,7 +9028,7 @@
       <c r="J66" s="80"/>
       <c r="K66" s="112"/>
     </row>
-    <row r="67" spans="2:11" ht="32">
+    <row r="67" spans="2:11" ht="28.8">
       <c r="B67" s="75" t="s">
         <v>221</v>
       </c>
@@ -9219,7 +9235,7 @@
       <c r="J75" s="80"/>
       <c r="K75" s="112"/>
     </row>
-    <row r="76" spans="2:11" ht="32">
+    <row r="76" spans="2:11" ht="28.8">
       <c r="B76" s="75" t="s">
         <v>238</v>
       </c>
@@ -9244,7 +9260,7 @@
       <c r="J76" s="80"/>
       <c r="K76" s="112"/>
     </row>
-    <row r="77" spans="2:11" ht="32">
+    <row r="77" spans="2:11" ht="28.8">
       <c r="B77" s="75" t="s">
         <v>240</v>
       </c>
@@ -9344,7 +9360,7 @@
       <c r="J80" s="80"/>
       <c r="K80" s="112"/>
     </row>
-    <row r="81" spans="2:11" ht="32">
+    <row r="81" spans="2:11" ht="28.8">
       <c r="B81" s="75" t="s">
         <v>252</v>
       </c>
@@ -9591,21 +9607,21 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="66" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="110" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="66" customWidth="1"/>
+    <col min="2" max="2" width="7.296875" style="110" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="110" customWidth="1"/>
-    <col min="4" max="4" width="93.33203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="93.296875" style="48" customWidth="1"/>
     <col min="5" max="5" width="3" style="66" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="61.83203125" style="66" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" style="66" customWidth="1"/>
+    <col min="7" max="7" width="61.796875" style="66" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="48" customWidth="1"/>
     <col min="9" max="1025" width="11" style="66" customWidth="1"/>
-    <col min="1026" max="16384" width="8.6640625" style="66"/>
+    <col min="1026" max="16384" width="8.69921875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="105" t="s">
         <v>308</v>
       </c>
@@ -9617,7 +9633,7 @@
       <c r="G2" s="95"/>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="2:8" ht="32">
+    <row r="3" spans="2:8">
       <c r="B3" s="70" t="s">
         <v>49</v>
       </c>
@@ -9651,7 +9667,7 @@
       <c r="G4" s="83"/>
       <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="2:8" ht="32">
+    <row r="5" spans="2:8" ht="28.8">
       <c r="B5" s="75" t="s">
         <v>267</v>
       </c>
@@ -9673,7 +9689,7 @@
       </c>
       <c r="H5" s="112"/>
     </row>
-    <row r="6" spans="2:8" ht="32">
+    <row r="6" spans="2:8" ht="28.8">
       <c r="B6" s="75" t="s">
         <v>270</v>
       </c>
@@ -9780,7 +9796,7 @@
       <c r="G10" s="119"/>
       <c r="H10" s="112"/>
     </row>
-    <row r="11" spans="2:8" ht="32">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="75" t="s">
         <v>285</v>
       </c>
@@ -9801,7 +9817,7 @@
       </c>
       <c r="H11" s="112"/>
     </row>
-    <row r="12" spans="2:8" ht="17">
+    <row r="12" spans="2:8">
       <c r="B12" s="75" t="s">
         <v>289</v>
       </c>
@@ -9855,7 +9871,7 @@
       <c r="G14" s="83"/>
       <c r="H14" s="40"/>
     </row>
-    <row r="15" spans="2:8" ht="32">
+    <row r="15" spans="2:8" ht="28.8">
       <c r="B15" s="75" t="s">
         <v>297</v>
       </c>
@@ -9888,7 +9904,7 @@
       <c r="G16" s="83"/>
       <c r="H16" s="40"/>
     </row>
-    <row r="17" spans="2:8" ht="48">
+    <row r="17" spans="2:8" ht="28.8">
       <c r="B17" s="75" t="s">
         <v>301</v>
       </c>
@@ -9910,7 +9926,7 @@
       </c>
       <c r="H17" s="112"/>
     </row>
-    <row r="18" spans="2:8" ht="64">
+    <row r="18" spans="2:8" ht="57.6">
       <c r="B18" s="75" t="s">
         <v>304</v>
       </c>
@@ -9942,7 +9958,7 @@
       <c r="G19" s="83"/>
       <c r="H19" s="40"/>
     </row>
-    <row r="20" spans="2:8" ht="32">
+    <row r="20" spans="2:8" ht="28.8">
       <c r="B20" s="75" t="s">
         <v>392</v>
       </c>
@@ -10142,13 +10158,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.296875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="119.6640625" customWidth="1"/>
+    <col min="5" max="5" width="119.69921875" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10358,7 +10374,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409" customHeight="1">
+    <row r="15" spans="1:5" ht="409.05" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>337</v>
       </c>
@@ -10392,7 +10408,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="85">
+    <row r="17" spans="1:5" ht="78">
       <c r="A17" s="60" t="s">
         <v>337</v>
       </c>
@@ -10409,7 +10425,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="51">
+    <row r="18" spans="1:5" ht="46.8">
       <c r="A18" s="60" t="s">
         <v>337</v>
       </c>
@@ -10426,7 +10442,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51">
+    <row r="19" spans="1:5" ht="46.8">
       <c r="A19" s="60" t="s">
         <v>337</v>
       </c>
@@ -10443,7 +10459,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="119">
+    <row r="20" spans="1:5" ht="109.2">
       <c r="A20" s="60" t="s">
         <v>332</v>
       </c>
@@ -10460,7 +10476,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17">
+    <row r="21" spans="1:5">
       <c r="A21" s="60" t="s">
         <v>332</v>
       </c>
@@ -10477,7 +10493,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="51">
+    <row r="22" spans="1:5" ht="46.8">
       <c r="A22" s="60" t="s">
         <v>332</v>
       </c>
@@ -10494,7 +10510,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17">
+    <row r="23" spans="1:5">
       <c r="A23" s="60" t="s">
         <v>332</v>
       </c>
@@ -10511,7 +10527,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17">
+    <row r="24" spans="1:5">
       <c r="A24" s="60" t="s">
         <v>332</v>
       </c>
@@ -10528,7 +10544,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51">
+    <row r="25" spans="1:5" ht="46.8">
       <c r="A25" s="60" t="s">
         <v>332</v>
       </c>
@@ -10545,7 +10561,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="51">
+    <row r="26" spans="1:5" ht="46.8">
       <c r="A26" s="60" t="s">
         <v>359</v>
       </c>
@@ -10562,7 +10578,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="255">
+    <row r="27" spans="1:5" ht="234">
       <c r="A27" s="117" t="s">
         <v>395</v>
       </c>
